--- a/evaluation/RQ2/osiris.xlsx
+++ b/evaluation/RQ2/osiris.xlsx
@@ -27139,7 +27139,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
